--- a/subset2.xlsx
+++ b/subset2.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울특별시  </t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -482,7 +482,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">부산광역시  </t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -501,7 +501,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">대구광역시  </t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -520,7 +520,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">인천광역시  </t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">광주광역시  </t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">대전광역시  </t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -577,7 +577,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">울산광역시  </t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -596,7 +596,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">세종특별시  </t>
+          <t>세종특별시</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -615,7 +615,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">경기도  </t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -634,7 +634,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">강원도  </t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -653,7 +653,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">충청북도  </t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -672,7 +672,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">충청남도  </t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -691,7 +691,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">전라북도  </t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -710,7 +710,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">전라남도  </t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -729,7 +729,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">경상북도  </t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -748,7 +748,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">경상남도  </t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -767,7 +767,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">제주도  </t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="B18" t="n">

--- a/subset2.xlsx
+++ b/subset2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
